--- a/biology/Zoologie/Acontias_percivali/Acontias_percivali.xlsx
+++ b/biology/Zoologie/Acontias_percivali/Acontias_percivali.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acontias percivali est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acontias percivali est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 dans le Nord-Est de la Tanzanie ;
 dans le Sud-Est du Kenya.</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce saurien apode est vivipare[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce saurien apode est vivipare
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèce Acontias percivali occidentalis[2] a été élevée au rang d'espèce et la sous-espèce Acontias percivali tasmani[3] a été placée en synonymie avec Acontias orientalis.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce Acontias percivali occidentalis a été élevée au rang d'espèce et la sous-espèce Acontias percivali tasmani a été placée en synonymie avec Acontias orientalis.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Loveridge, 1935 : Scientific Results of an Expedition to Rain Forest Regions in Eastern Africa. I. New Reptiles and Amphibians from East Africa. Bulletin of the Museum of Comparative Zoology at Harvard College, vol. 79, no 1, p. 1-19 (texte intégral).</t>
         </is>
